--- a/Двоичное дерево поиска.xlsx
+++ b/Двоичное дерево поиска.xlsx
@@ -5,17 +5,20 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - Двоичное дерево поиск" sheetId="1" r:id="rId4"/>
+    <sheet name="Двоичное дерево поиска" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>Двоичное дерево поиска (несбалансированное)</t>
   </si>
   <si>
+    <t>АВЛ-дерево</t>
+  </si>
+  <si>
     <t>Кол-во эл-ов / Время, мс</t>
   </si>
   <si>
@@ -34,24 +37,57 @@
     <t>0.1098940372467041</t>
   </si>
   <si>
+    <t>0.43671301007270813</t>
+  </si>
+  <si>
+    <t>0.4125119745731354</t>
+  </si>
+  <si>
     <t>0.9205451011657715</t>
   </si>
   <si>
     <t>3.4116718769073486</t>
   </si>
   <si>
+    <t>3.4642020165920258</t>
+  </si>
+  <si>
+    <t>3.223050981760025</t>
+  </si>
+  <si>
     <t>16.11415696144104</t>
   </si>
   <si>
     <t>446.6527011394501</t>
   </si>
   <si>
-    <t>12.391877889633179</t>
+    <t>16.333698987960815</t>
+  </si>
+  <si>
+    <t>11.5399209856987</t>
+  </si>
+  <si>
+    <t>36.225428998470306</t>
   </si>
   <si>
     <t>Maximum call stack size exceeded</t>
   </si>
   <si>
+    <t>59.0475449860096</t>
+  </si>
+  <si>
+    <t>39.85987398028374</t>
+  </si>
+  <si>
+    <t>968.4374960064888</t>
+  </si>
+  <si>
+    <t>1081.184262007475</t>
+  </si>
+  <si>
+    <t>370.58712700009346</t>
+  </si>
+  <si>
     <t>Удаление (n/10)</t>
   </si>
   <si>
@@ -61,18 +97,57 @@
     <t>0.13840508460998535</t>
   </si>
   <si>
+    <t>0.18621399998664856</t>
+  </si>
+  <si>
+    <t>0.1562579870223999</t>
+  </si>
+  <si>
     <t>0.28429603576660156</t>
   </si>
   <si>
     <t>5.623370885848999</t>
   </si>
   <si>
+    <t>0.4013260006904602</t>
+  </si>
+  <si>
+    <t>0.44305798411369324</t>
+  </si>
+  <si>
     <t>0.8850500583648682</t>
   </si>
   <si>
     <t>70.0692138671875</t>
   </si>
   <si>
+    <t>3.2885269820690155</t>
+  </si>
+  <si>
+    <t>2.702012002468109</t>
+  </si>
+  <si>
+    <t>14.108649998903275</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>14.558894991874695</t>
+  </si>
+  <si>
+    <t>23.375544995069504</t>
+  </si>
+  <si>
+    <t>149.33939599990845</t>
+  </si>
+  <si>
+    <t>147.48853200674057</t>
+  </si>
+  <si>
+    <t>148.29089400172234</t>
+  </si>
+  <si>
     <t>Поиск (n/10)</t>
   </si>
   <si>
@@ -82,16 +157,52 @@
     <t>0.17407488822937012</t>
   </si>
   <si>
+    <t>0.08476299047470093</t>
+  </si>
+  <si>
+    <t>0.08189001679420471</t>
+  </si>
+  <si>
     <t>0.1974339485168457</t>
   </si>
   <si>
     <t>1.4787421226501465</t>
   </si>
   <si>
+    <t>0.23158299922943115</t>
+  </si>
+  <si>
+    <t>0.25491398572921753</t>
+  </si>
+  <si>
     <t>0.441425085067749</t>
   </si>
   <si>
     <t>48.572898864746094</t>
+  </si>
+  <si>
+    <t>1.5650619864463806</t>
+  </si>
+  <si>
+    <t>1.5503679811954498</t>
+  </si>
+  <si>
+    <t>11.104838997125626</t>
+  </si>
+  <si>
+    <t>10.08313399553299</t>
+  </si>
+  <si>
+    <t>9.267123997211456</t>
+  </si>
+  <si>
+    <t>113.47829499840736</t>
+  </si>
+  <si>
+    <t>99.12654101848602</t>
+  </si>
+  <si>
+    <t>103.41176000237465</t>
   </si>
   <si>
     <t>Выводы</t>
@@ -99,6 +210,10 @@
   <si>
     <t>Если создать бинарное дерево поиска из отсортированных данных и не применять балансировку, то дерево приобретёт “бамбукообразный” вид (перегружено в правой части, если элементы отсортированы по возрастанию) и сложность выполнения операций составит O(N).
 Если же работать со случайными значениями, то они будут более равномерно распределяться налево и направо, сводя сложность выполнения операций к логарифмической O(logN).</t>
+  </si>
+  <si>
+    <t>В АВЛ-дереве немного эффективнее работает вставка отсортированных значений. Операция удаления и поиска работают примерно так же, как для случайных значений в обычном двоичном дереве поиска.
+Преимущество по сравнению с обычным двоичным деревом в том, что и в худшем случае операции будут иметь логарифмическую сложность.</t>
   </si>
 </sst>
 </file>
@@ -108,7 +223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -120,13 +235,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,8 +265,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -158,6 +284,54 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -171,7 +345,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -180,7 +354,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -189,73 +363,73 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -265,54 +439,78 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -331,8 +529,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
@@ -351,10 +551,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -531,11 +731,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -544,34 +747,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -819,12 +1022,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1115,7 +1318,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1393,190 +1596,365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:C17"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.5703" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.4922" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1953" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="2" width="22.5" style="1" customWidth="1"/>
+    <col min="3" max="5" width="28.1719" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="4">
+      <c r="A2" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="B2" t="s" s="8">
         <v>3</v>
       </c>
+      <c r="C2" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s" s="8">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7"/>
+      <c r="A3" s="9"/>
+      <c r="B3" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" t="s" s="12">
+        <v>5</v>
+      </c>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="14">
         <v>100</v>
       </c>
-      <c r="B4" t="s" s="9">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="10">
+      <c r="B4" t="s" s="15">
         <v>6</v>
       </c>
+      <c r="C4" t="s" s="15">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="15">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="14">
         <v>1000</v>
       </c>
-      <c r="B5" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s" s="10">
-        <v>8</v>
+      <c r="B5" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s" s="15">
+        <v>13</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="8">
+      <c r="A6" s="14">
         <v>10000</v>
       </c>
-      <c r="B6" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s" s="10">
-        <v>10</v>
+      <c r="B6" t="s" s="15">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s" s="15">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s" s="15">
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="14">
         <v>100000</v>
       </c>
-      <c r="B7" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s" s="10">
-        <v>12</v>
+      <c r="B7" t="s" s="15">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s" s="15">
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="C8" s="13"/>
+      <c r="A8" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="B8" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s" s="17">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s" s="18">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="8">
+      <c r="A9" s="19"/>
+      <c r="B9" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" t="s" s="20">
+        <v>25</v>
+      </c>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="14">
         <v>100</v>
       </c>
-      <c r="B9" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="8">
+      <c r="B10" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s" s="15">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s" s="15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="14">
         <v>1000</v>
       </c>
-      <c r="B10" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s" s="10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="8">
+      <c r="B11" t="s" s="15">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s" s="15">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s" s="15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="14">
         <v>10000</v>
       </c>
-      <c r="B11" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="C12" s="13"/>
+      <c r="B12" t="s" s="15">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s" s="15">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s" s="15">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="8">
+      <c r="A13" s="14">
+        <v>100000</v>
+      </c>
+      <c r="B13" t="s" s="15">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s" s="15">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s" s="15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="B14" t="s" s="15">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s" s="15">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s" s="15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" s="14">
         <v>100</v>
       </c>
-      <c r="B13" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s" s="10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="8">
+      <c r="B16" t="s" s="15">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s" s="15">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s" s="15">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s" s="15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="14">
         <v>1000</v>
       </c>
-      <c r="B14" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s" s="10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="8">
+      <c r="B17" t="s" s="15">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s" s="15">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s" s="15">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s" s="15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="14">
         <v>10000</v>
       </c>
-      <c r="B15" t="s" s="9">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s" s="10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" ht="116.05" customHeight="1">
-      <c r="A17" t="s" s="15">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="C17" s="13"/>
+      <c r="B18" t="s" s="15">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s" s="15">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s" s="15">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s" s="15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" s="14">
+        <v>100000</v>
+      </c>
+      <c r="B19" t="s" s="15">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s" s="15">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s" s="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="B20" t="s" s="15">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s" s="15">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s" s="15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" ht="116.05" customHeight="1">
+      <c r="A22" t="s" s="22">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s" s="18">
+        <v>65</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" t="s" s="23">
+        <v>66</v>
+      </c>
+      <c r="E22" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
